--- a/biology/Botanique/Géranium_fluet/Géranium_fluet.xlsx
+++ b/biology/Botanique/Géranium_fluet/Géranium_fluet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_fluet</t>
+          <t>Géranium_fluet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium pusillum
-Le Géranium fluet ou Géranium à tiges grêles (Geranium pusillum) en anglais Small-flowereded Crane's-bill, en allemand Kleiner Storchschnabel, en italien geranio minore, en néerlandais kleine ooievaarsbek, en roumain buchet et en danois liden storkenæb est une plante de la famille des Géraniacées[1].
+Le Géranium fluet ou Géranium à tiges grêles (Geranium pusillum) en anglais Small-flowereded Crane's-bill, en allemand Kleiner Storchschnabel, en italien geranio minore, en néerlandais kleine ooievaarsbek, en roumain buchet et en danois liden storkenæb est une plante de la famille des Géraniacées.
 Les synonymes taxonomiques sont nombreux, parmi eux Geranium dubium Chaix,Geranium circinatum Kitt, Geranium malvaefolium Scopoli.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_fluet</t>
+          <t>Géranium_fluet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle, aux tiges couchées de 10 à 40 cm de hauteur. Les feuilles sont palmatifides en 5 à 7 lobes.
-Les fleurs sont très petites de couleur rose violacé[2].
+Les fleurs sont très petites de couleur rose violacé.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_fluet</t>
+          <t>Géranium_fluet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : rose violacé
-Floraison de mai à septembre[3]
+Floraison de mai à septembre
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_fluet</t>
+          <t>Géranium_fluet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Présente dans les décombres et au bord des chemins.
 Eurasiatique, elle se retrouve dans toute la France métropolitaine.
